--- a/output/data/cumulative.xlsx
+++ b/output/data/cumulative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1358"/>
+  <dimension ref="A1:P1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>是否为ai生成影片</t>
+          <t>是否為ai生成影片</t>
         </is>
       </c>
     </row>
@@ -66257,11 +66257,7 @@
       <c r="O1348" t="n">
         <v>70</v>
       </c>
-      <c r="P1348" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="P1348" t="inlineStr"/>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
@@ -66313,11 +66309,7 @@
       <c r="O1349" t="n">
         <v>70</v>
       </c>
-      <c r="P1349" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="P1349" t="inlineStr"/>
     </row>
     <row r="1350">
       <c r="A1350" t="inlineStr">
@@ -66369,11 +66361,7 @@
       <c r="O1350" t="n">
         <v>70</v>
       </c>
-      <c r="P1350" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="P1350" t="inlineStr"/>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
@@ -66425,11 +66413,7 @@
       <c r="O1351" t="n">
         <v>70</v>
       </c>
-      <c r="P1351" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="P1351" t="inlineStr"/>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
@@ -66481,11 +66465,7 @@
       <c r="O1352" t="n">
         <v>70</v>
       </c>
-      <c r="P1352" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="P1352" t="inlineStr"/>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
@@ -66537,11 +66517,7 @@
       <c r="O1353" t="n">
         <v>70</v>
       </c>
-      <c r="P1353" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="P1353" t="inlineStr"/>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
@@ -66593,11 +66569,7 @@
       <c r="O1354" t="n">
         <v>70</v>
       </c>
-      <c r="P1354" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="P1354" t="inlineStr"/>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
@@ -66649,11 +66621,7 @@
       <c r="O1355" t="n">
         <v>70</v>
       </c>
-      <c r="P1355" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="P1355" t="inlineStr"/>
     </row>
     <row r="1356">
       <c r="A1356" t="inlineStr">
@@ -66705,11 +66673,7 @@
       <c r="O1356" t="n">
         <v>70</v>
       </c>
-      <c r="P1356" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="P1356" t="inlineStr"/>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
@@ -66761,11 +66725,7 @@
       <c r="O1357" t="n">
         <v>70</v>
       </c>
-      <c r="P1357" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="P1357" t="inlineStr"/>
     </row>
     <row r="1358">
       <c r="A1358" t="inlineStr">
@@ -66817,11 +66777,3567 @@
       <c r="O1358" t="n">
         <v>70</v>
       </c>
-      <c r="P1358" t="inlineStr">
+      <c r="P1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>input\Download (6).mp4</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>20251213-120613</t>
+        </is>
+      </c>
+      <c r="C1359" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1359" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>input\Download (8).mp4</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>20251213-120825</t>
+        </is>
+      </c>
+      <c r="C1360" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>73</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1360" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>input\download.mp4</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>20251213-121039</t>
+        </is>
+      </c>
+      <c r="C1361" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1361" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>input\7529677666916617486.mp4</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>20251213-124417</t>
+        </is>
+      </c>
+      <c r="C1362" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>input\7531125701945101582.mp4</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>20251213-124718</t>
+        </is>
+      </c>
+      <c r="C1363" t="n">
+        <v>17.92105263157895</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>input\7531687470371556622.mp4</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>20251213-125107</t>
+        </is>
+      </c>
+      <c r="C1364" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>input\7531953535315889463.mp4</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>20251213-125147</t>
+        </is>
+      </c>
+      <c r="C1365" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>51</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>95</v>
+      </c>
+      <c r="P1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>input\7531956711884655927.mp4</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>20251213-125225</t>
+        </is>
+      </c>
+      <c r="C1366" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>input\7533009482411019533.mp4</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>20251213-125303</t>
+        </is>
+      </c>
+      <c r="C1367" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>73</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>input\7533020746507980045.mp4</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>20251213-125342</t>
+        </is>
+      </c>
+      <c r="C1368" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>41</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>input\Download (1).mp4</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>20251213-125416</t>
+        </is>
+      </c>
+      <c r="C1369" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>78</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>88</v>
+      </c>
+      <c r="P1369" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>input\Download (2).mp4</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>20251213-125636</t>
+        </is>
+      </c>
+      <c r="C1370" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>98</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>95</v>
+      </c>
+      <c r="P1370" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>input\Download (5).mp4</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>20251213-125942</t>
+        </is>
+      </c>
+      <c r="C1371" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1371" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>input\Download (6).mp4</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>20251213-130042</t>
+        </is>
+      </c>
+      <c r="C1372" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1372" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>input\download.mp4</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>20251213-130512</t>
+        </is>
+      </c>
+      <c r="C1373" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1373" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>input\7531384288722341175.mp4</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>20251213-131821</t>
+        </is>
+      </c>
+      <c r="C1374" t="n">
+        <v>78</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>input\7531387460744465719.mp4</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>20251213-131907</t>
+        </is>
+      </c>
+      <c r="C1375" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>80</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>input\7531568017566715150.mp4</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>20251213-132004</t>
+        </is>
+      </c>
+      <c r="C1376" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>input\7531125701945101582.mp4</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>20251213-134752</t>
+        </is>
+      </c>
+      <c r="C1377" t="n">
+        <v>17.92105263157895</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>input\7531953535315889463.mp4</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>20251213-135310</t>
+        </is>
+      </c>
+      <c r="C1378" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>95</v>
+      </c>
+      <c r="P1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>input\7533020746507980045.mp4</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>20251213-135613</t>
+        </is>
+      </c>
+      <c r="C1379" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>41</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>input\7570410850163477790.mp4</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>20251213-140149</t>
+        </is>
+      </c>
+      <c r="C1380" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>96</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>50</v>
+      </c>
+      <c r="P1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>input\7581527229503442231.mp4</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>20251213-142727</t>
+        </is>
+      </c>
+      <c r="C1381" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>99</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>input\7582276350103276814.mp4</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>20251213-143007</t>
+        </is>
+      </c>
+      <c r="C1382" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>input\7582337442787708174.mp4</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>20251213-143103</t>
+        </is>
+      </c>
+      <c r="C1383" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>input\7582584267641720077.mp4</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>20251213-143145</t>
+        </is>
+      </c>
+      <c r="C1384" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>88</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>93</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>input\7582740550609161485.mp4</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>20251213-143641</t>
+        </is>
+      </c>
+      <c r="C1385" t="n">
+        <v>40</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>75</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>input\7583343805663841550.mp4</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>20251213-143848</t>
+        </is>
+      </c>
+      <c r="C1386" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>input\7583359765892369677.mp4</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>20251213-143942</t>
+        </is>
+      </c>
+      <c r="C1387" t="n">
+        <v>4.640350877192979</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>88</v>
+      </c>
+      <c r="P1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>input\7583405586461543711.mp4</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>20251213-144030</t>
+        </is>
+      </c>
+      <c r="C1388" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>88</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>85</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>input\7583437688414555423.mp4</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>20251213-144238</t>
+        </is>
+      </c>
+      <c r="C1389" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>88</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>93</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>72</v>
+      </c>
+      <c r="P1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>input\7583454162684218655.mp4</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>20251213-144323</t>
+        </is>
+      </c>
+      <c r="C1390" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>93</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>input\7583458239229087006.mp4</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>20251213-144532</t>
+        </is>
+      </c>
+      <c r="C1391" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>88</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>50</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>35</v>
+      </c>
+      <c r="P1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>input\Download (1).mp4</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>20251213-144601</t>
+        </is>
+      </c>
+      <c r="C1392" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>78</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>88</v>
+      </c>
+      <c r="P1392" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>input\Download (10).mp4</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>20251213-144649</t>
+        </is>
+      </c>
+      <c r="C1393" t="n">
+        <v>90.57017543859649</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>72</v>
+      </c>
+      <c r="P1393" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>input\Download (2).mp4</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>20251213-144722</t>
+        </is>
+      </c>
+      <c r="C1394" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>98</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>95</v>
+      </c>
+      <c r="P1394" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>input\Download (3).mp4</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>20251213-144801</t>
+        </is>
+      </c>
+      <c r="C1395" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1395" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>input\Download (4).mp4</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>20251213-144838</t>
+        </is>
+      </c>
+      <c r="C1396" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>93</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>93</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1396" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>input\Download (5).mp4</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>20251213-144916</t>
+        </is>
+      </c>
+      <c r="C1397" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1397" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>input\Download (6).mp4</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>20251213-144948</t>
+        </is>
+      </c>
+      <c r="C1398" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>83</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1398" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>input\Download (7).mp4</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>20251213-145025</t>
+        </is>
+      </c>
+      <c r="C1399" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>93</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>72</v>
+      </c>
+      <c r="P1399" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>input\Download (8).mp4</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>20251213-145054</t>
+        </is>
+      </c>
+      <c r="C1400" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>73</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1400" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>input\Download (9).mp4</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>20251213-145139</t>
+        </is>
+      </c>
+      <c r="C1401" t="n">
+        <v>93</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>83</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1401" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>input\download.mp4</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>20251213-145215</t>
+        </is>
+      </c>
+      <c r="C1402" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1402" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>input\7569045236752583967.mp4</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>20251213-170636</t>
+        </is>
+      </c>
+      <c r="C1403" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>55</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>58</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>72</v>
+      </c>
+      <c r="P1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>input\7529197470543269133.mp4</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>20251214-021824</t>
+        </is>
+      </c>
+      <c r="C1404" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>input\7529599151269596429.mp4</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>20251214-021925</t>
+        </is>
+      </c>
+      <c r="C1405" t="n">
+        <v>90.41228070175438</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>input\7530022335135386935.mp4</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>20251214-022011</t>
+        </is>
+      </c>
+      <c r="C1406" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>input\7531121309086911799.mp4</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>20251214-022058</t>
+        </is>
+      </c>
+      <c r="C1407" t="n">
+        <v>46.76315789473685</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>input\7552579550782197047.mp4</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>20251214-022153</t>
+        </is>
+      </c>
+      <c r="C1408" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>83</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>95</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>input\7574599985963011341.mp4</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>20251214-022755</t>
+        </is>
+      </c>
+      <c r="C1409" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>99</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>88</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>input\7578905061170941197.mp4</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>20251214-023350</t>
+        </is>
+      </c>
+      <c r="C1410" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>62</v>
+      </c>
+      <c r="P1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>input\7580070721519602947.mp4</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>20251214-023624</t>
+        </is>
+      </c>
+      <c r="C1411" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>85</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>input\7529197470543269133.mp4</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>20251214-105806</t>
+        </is>
+      </c>
+      <c r="C1412" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>input\7529599151269596429.mp4</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>20251214-105901</t>
+        </is>
+      </c>
+      <c r="C1413" t="n">
+        <v>90.41228070175438</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>input\7529677666916617486.mp4</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>20251214-105941</t>
+        </is>
+      </c>
+      <c r="C1414" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>70</v>
+      </c>
+      <c r="P1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>input\7530022335135386935.mp4</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>20251214-110021</t>
+        </is>
+      </c>
+      <c r="C1415" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>input\7531121309086911799.mp4</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>20251214-110104</t>
+        </is>
+      </c>
+      <c r="C1416" t="n">
+        <v>46.76315789473685</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>input\7531125701945101582.mp4</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>20251214-110154</t>
+        </is>
+      </c>
+      <c r="C1417" t="n">
+        <v>17.92105263157895</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>input\7531384288722341175.mp4</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>20251214-110253</t>
+        </is>
+      </c>
+      <c r="C1418" t="n">
+        <v>78</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>input\7531387460744465719.mp4</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>20251214-110353</t>
+        </is>
+      </c>
+      <c r="C1419" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>80</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>60</v>
+      </c>
+      <c r="P1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>input\7531568017566715150.mp4</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>20251214-110449</t>
+        </is>
+      </c>
+      <c r="C1420" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>input\7531687470371556622.mp4</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>20251214-110531</t>
+        </is>
+      </c>
+      <c r="C1421" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>63</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>80</v>
+      </c>
+      <c r="P1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>input\7531953535315889463.mp4</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>20251214-110610</t>
+        </is>
+      </c>
+      <c r="C1422" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>95</v>
+      </c>
+      <c r="P1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>input\7531956711884655927.mp4</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>20251214-110652</t>
+        </is>
+      </c>
+      <c r="C1423" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>55</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>input\7533009482411019533.mp4</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>20251214-110740</t>
+        </is>
+      </c>
+      <c r="C1424" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>73</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>90</v>
+      </c>
+      <c r="P1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>input\7574599985963011341.mp4</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>20251214-112042</t>
+        </is>
+      </c>
+      <c r="C1425" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>99</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>50</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>50</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>88</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>82</v>
+      </c>
+      <c r="P1425" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
